--- a/order.xlsx
+++ b/order.xlsx
@@ -16,12 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>taxtile milles</t>
   </si>
   <si>
     <t>fornt pages design</t>
+  </si>
+  <si>
+    <t>login error</t>
+  </si>
+  <si>
+    <t>email template</t>
+  </si>
+  <si>
+    <t>estate 123</t>
+  </si>
+  <si>
+    <t>knockknock new Changes</t>
   </si>
 </sst>
 </file>
@@ -361,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,6 +394,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -16,26 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>taxtile milles</t>
-  </si>
-  <si>
-    <t>fornt pages design</t>
-  </si>
-  <si>
-    <t>login error</t>
-  </si>
-  <si>
-    <t>email template</t>
-  </si>
-  <si>
-    <t>estate 123</t>
-  </si>
-  <si>
-    <t>knockknock new Changes</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,33 +367,8 @@
     <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
